--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H2">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I2">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J2">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N2">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O2">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P2">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q2">
-        <v>119.954326716378</v>
+        <v>0.004806542387111112</v>
       </c>
       <c r="R2">
-        <v>1079.588940447402</v>
+        <v>0.043258881484</v>
       </c>
       <c r="S2">
-        <v>0.3988182532907623</v>
+        <v>0.0009020297577605279</v>
       </c>
       <c r="T2">
-        <v>0.3988182532907623</v>
+        <v>0.0009020297577605275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H3">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I3">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J3">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.234632</v>
       </c>
       <c r="O3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q3">
-        <v>1.850372945064</v>
+        <v>0.006095947921777778</v>
       </c>
       <c r="R3">
-        <v>16.653356505576</v>
+        <v>0.054863531296</v>
       </c>
       <c r="S3">
-        <v>0.006152029077131657</v>
+        <v>0.001144008724846993</v>
       </c>
       <c r="T3">
-        <v>0.006152029077131657</v>
+        <v>0.001144008724846992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H4">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I4">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J4">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N4">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O4">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P4">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q4">
-        <v>0.696492325809</v>
+        <v>0.004166113476000001</v>
       </c>
       <c r="R4">
-        <v>6.268430932281</v>
+        <v>0.03749502128400001</v>
       </c>
       <c r="S4">
-        <v>0.002315663473034524</v>
+        <v>0.0007818423363198107</v>
       </c>
       <c r="T4">
-        <v>0.002315663473034524</v>
+        <v>0.0007818423363198105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>75.672584</v>
       </c>
       <c r="I5">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J5">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N5">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O5">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P5">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q5">
-        <v>127.8909887053529</v>
+        <v>1.555517228639111</v>
       </c>
       <c r="R5">
-        <v>1151.018898348176</v>
+        <v>13.999655057752</v>
       </c>
       <c r="S5">
-        <v>0.4252056772215906</v>
+        <v>0.2919193707110919</v>
       </c>
       <c r="T5">
-        <v>0.4252056772215906</v>
+        <v>0.2919193707110918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.672584</v>
       </c>
       <c r="I6">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J6">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.234632</v>
       </c>
       <c r="O6">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P6">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q6">
         <v>1.972801081009778</v>
@@ -818,10 +818,10 @@
         <v>17.755209729088</v>
       </c>
       <c r="S6">
-        <v>0.006559072129834418</v>
+        <v>0.3702298113473019</v>
       </c>
       <c r="T6">
-        <v>0.006559072129834419</v>
+        <v>0.3702298113473019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>75.672584</v>
       </c>
       <c r="I7">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J7">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N7">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O7">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P7">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q7">
-        <v>0.7425750667919999</v>
+        <v>1.348258429128</v>
       </c>
       <c r="R7">
-        <v>6.683175601127999</v>
+        <v>12.134325862152</v>
       </c>
       <c r="S7">
-        <v>0.002468877106663141</v>
+        <v>0.2530237177323379</v>
       </c>
       <c r="T7">
-        <v>0.002468877106663142</v>
+        <v>0.2530237177323379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H8">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I8">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J8">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N8">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O8">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P8">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q8">
-        <v>46.67583842929822</v>
+        <v>0.1393738806358889</v>
       </c>
       <c r="R8">
-        <v>420.082545863684</v>
+        <v>1.254364925723</v>
       </c>
       <c r="S8">
-        <v>0.1551855348850283</v>
+        <v>0.02615588871644113</v>
       </c>
       <c r="T8">
-        <v>0.1551855348850283</v>
+        <v>0.02615588871644113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H9">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I9">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J9">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.234632</v>
       </c>
       <c r="O9">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P9">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q9">
-        <v>0.7200049467324444</v>
+        <v>0.1767623895902222</v>
       </c>
       <c r="R9">
-        <v>6.480044520592</v>
+        <v>1.590861506312</v>
       </c>
       <c r="S9">
-        <v>0.002393837080137065</v>
+        <v>0.03317248088580194</v>
       </c>
       <c r="T9">
-        <v>0.002393837080137065</v>
+        <v>0.03317248088580194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H10">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I10">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J10">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N10">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O10">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P10">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q10">
-        <v>0.271014511578</v>
+        <v>0.120803553897</v>
       </c>
       <c r="R10">
-        <v>2.439130604202</v>
+        <v>1.087231985073</v>
       </c>
       <c r="S10">
-        <v>0.0009010557358180688</v>
+        <v>0.02267084978809795</v>
       </c>
       <c r="T10">
-        <v>0.000901055735818069</v>
+        <v>0.02267084978809795</v>
       </c>
     </row>
   </sheetData>
